--- a/config_3.30/activity_exchange_server.xlsx
+++ b/config_3.30/activity_exchange_server.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="416">
   <si>
     <t>id|</t>
   </si>
@@ -1968,6 +1968,10 @@
   </si>
   <si>
     <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4737,10 +4741,10 @@
   <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D330" sqref="D330"/>
+      <selection pane="bottomRight" activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12859,7 +12863,7 @@
         <v>130</v>
       </c>
       <c r="F316" s="51" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="G316" s="51" t="s">
         <v>62</v>
